--- a/chart2/data/20181028_台灣地區用水資料V4.xlsx
+++ b/chart2/data/20181028_台灣地區用水資料V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="144" windowWidth="19176" windowHeight="7872" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <r>
       <t>項</t>
@@ -156,6 +156,10 @@
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>每人每日平均用水量（公升）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -165,14 +169,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -412,31 +416,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,6 +443,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,9 +769,9 @@
       <selection sqref="A1:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" thickBot="1">
+    <row r="1" spans="1:13" ht="32.25" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -808,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.8" thickBot="1">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="1">
         <v>70</v>
       </c>
@@ -836,8 +840,8 @@
       <c r="I2" s="4">
         <v>39</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="3">
         <v>221</v>
       </c>
@@ -845,7 +849,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.8" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="A3" s="1">
         <v>75</v>
       </c>
@@ -873,8 +877,8 @@
       <c r="I3" s="4">
         <v>46</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="3">
         <v>268</v>
       </c>
@@ -882,7 +886,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.8" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -910,8 +914,8 @@
       <c r="I4" s="4">
         <v>55</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="3">
         <v>332</v>
       </c>
@@ -919,7 +923,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.8" thickBot="1">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="A5" s="1">
         <v>85</v>
       </c>
@@ -947,8 +951,8 @@
       <c r="I5" s="4">
         <v>59</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="3">
         <v>365</v>
       </c>
@@ -956,7 +960,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.8" thickBot="1">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1">
       <c r="A6" s="1">
         <v>90</v>
       </c>
@@ -984,8 +988,8 @@
       <c r="I6" s="4">
         <v>95</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="3">
         <v>457</v>
       </c>
@@ -993,7 +997,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.8" thickBot="1">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1">
       <c r="A7" s="1">
         <v>95</v>
       </c>
@@ -1021,8 +1025,8 @@
       <c r="I7" s="4">
         <v>94</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="3">
         <v>432</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.8" thickBot="1">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1">
       <c r="A8" s="1">
         <v>96</v>
       </c>
@@ -1058,8 +1062,8 @@
       <c r="I8" s="4">
         <v>92</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="3">
         <v>427</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.8" thickBot="1">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1">
       <c r="A9" s="1">
         <v>97</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.8" thickBot="1">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="1">
         <v>98</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.8" thickBot="1">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1">
       <c r="A11" s="1">
         <v>99</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.8" thickBot="1">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.8" thickBot="1">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="A13" s="1">
         <v>101</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.8" thickBot="1">
+    <row r="14" spans="1:13" ht="16.5" thickBot="1">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.8" thickBot="1">
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
       <c r="A15" s="1">
         <v>103</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.8" thickBot="1">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="1">
         <v>104</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.8" thickBot="1">
+    <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="A17" s="1">
         <v>105</v>
       </c>
@@ -1459,9 +1463,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.8" thickBot="1">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34.200000000000003">
+    <row r="2" spans="1:18" ht="21">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="3" spans="1:18" ht="21.75" thickBot="1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="34.200000000000003">
+    <row r="4" spans="1:18" ht="21">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="5" spans="1:18" ht="21.75" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34.200000000000003">
+    <row r="6" spans="1:18" ht="21">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="7" spans="1:18" ht="21.75" thickBot="1">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="34.200000000000003">
+    <row r="8" spans="1:18" ht="21">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="9" spans="1:18" ht="21.75" thickBot="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1965,21 +1969,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="34.200000000000003">
+    <row r="10" spans="1:18" ht="21">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15">
+      <c r="C10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11">
         <v>248</v>
       </c>
       <c r="K10" s="3">
@@ -2007,21 +2011,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="11" spans="1:18" ht="21.75" thickBot="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18">
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="12">
         <v>16.88</v>
       </c>
       <c r="K11" s="4">
@@ -2049,7 +2053,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="34.200000000000003">
+    <row r="12" spans="1:18" ht="21">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="13" spans="1:18" ht="21.75" thickBot="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2181,13 +2185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.8" thickBot="1">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2243,12 +2247,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34.200000000000003">
+    <row r="2" spans="1:18" ht="31.5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>298</v>
@@ -2299,7 +2303,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="3" spans="1:18" ht="21.75" thickBot="1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2355,12 +2359,12 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="34.200000000000003">
+    <row r="4" spans="1:18" ht="31.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>175</v>
@@ -2411,7 +2415,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="5" spans="1:18" ht="21.75" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2467,12 +2471,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34.200000000000003">
+    <row r="6" spans="1:18" ht="31.5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>169</v>
@@ -2523,7 +2527,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="7" spans="1:18" ht="21.75" thickBot="1">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2579,12 +2583,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="34.200000000000003">
+    <row r="8" spans="1:18" ht="31.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>167</v>
@@ -2635,7 +2639,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="9" spans="1:18" ht="21.75" thickBot="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2691,21 +2695,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="34.200000000000003">
+    <row r="10" spans="1:18" ht="31.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="15">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="11">
         <v>248</v>
       </c>
       <c r="K10" s="3">
@@ -2733,21 +2737,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="11" spans="1:18" ht="21.75" thickBot="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="18">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="12">
         <v>16.88</v>
       </c>
       <c r="K11" s="4">
@@ -2775,12 +2779,12 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="34.200000000000003">
+    <row r="12" spans="1:18" ht="31.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>221</v>
@@ -2831,7 +2835,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="34.799999999999997" thickBot="1">
+    <row r="13" spans="1:18" ht="21.75" thickBot="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
